--- a/keyboards/crkbd/keymaps/ken16itapon/論理チェック.xlsx
+++ b/keyboards/crkbd/keymaps/ken16itapon/論理チェック.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.itakura/GitHub/qmk_firmware/keyboards/crkbd/keymaps/ken16itapon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9616E153-D227-254F-9E76-D583FBB3BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E42705E-1ADA-0049-9FF4-1334012A18C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="11700" windowWidth="57400" windowHeight="24700" xr2:uid="{B926C555-37FC-594A-89AB-A34850047209}"/>
+    <workbookView xWindow="4880" yWindow="1120" windowWidth="57400" windowHeight="15200" xr2:uid="{B926C555-37FC-594A-89AB-A34850047209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
   <si>
     <t>Press</t>
   </si>
@@ -794,10 +793,10 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1090,12 +1089,8 @@
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
@@ -1148,9 +1143,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1200,11 +1193,10 @@
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <f>-FALSE</f>
+        <v>0</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1972,8 +1964,8 @@
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="str">
-        <v>-&gt;False</v>
+      <c r="B28" s="1">
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1989,19 +1981,19 @@
         <v>-&gt;True</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="str">
-        <v>-&gt;False</v>
+      <c r="H28" s="1">
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="str" cm="1">
         <f t="array" ref="J28">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(G28:I28,G28:I28&lt;&gt;0),,-1),"")</f>
-        <v>-&gt;False</v>
+        <v/>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="13" t="str">
-        <v>-&gt;False</v>
+      <c r="L28" s="13">
+        <v>0</v>
       </c>
       <c r="M28" s="13">
         <v>0</v>
@@ -2013,8 +2005,8 @@
         <f t="array" ref="O28">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(L28:N28,L28:N28&lt;&gt;0),,-1),"")</f>
         <v>-&gt;True</v>
       </c>
-      <c r="P28" s="1" t="str">
-        <v>-&gt;False</v>
+      <c r="P28" s="1">
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2029,8 +2021,8 @@
         <f t="array" ref="T28">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(O28:S28,O28:S28&lt;&gt;0),,-1),"")</f>
         <v>-&gt;True</v>
       </c>
-      <c r="V28" s="13" t="str">
-        <v>-&gt;False</v>
+      <c r="V28" s="13">
+        <v>0</v>
       </c>
       <c r="W28" s="13">
         <v>0</v>
@@ -2042,8 +2034,8 @@
         <f t="array" ref="Y28">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(V28:X28,V28:X28&lt;&gt;0),,-1),"")</f>
         <v>-&gt;True</v>
       </c>
-      <c r="Z28" s="1" t="str">
-        <v>-&gt;False</v>
+      <c r="Z28" s="1">
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -2059,7 +2051,7 @@
       </c>
       <c r="AE28" s="15" t="str" cm="1">
         <f t="array" ref="AE28">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(Y28:AD28,Y28:AD28&lt;&gt;0),,-1),"")</f>
-        <v>-&gt;False</v>
+        <v>-&gt;True</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="21">
@@ -2160,8 +2152,8 @@
       <c r="A30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="17" t="str">
-        <v>-&gt;False</v>
+      <c r="B30" s="17">
+        <v>0</v>
       </c>
       <c r="C30" s="17">
         <v>0</v>
@@ -2174,22 +2166,22 @@
       </c>
       <c r="F30" s="17" t="str" cm="1">
         <f t="array" ref="F30">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(B30:E30,B30:E30&lt;&gt;0),,-1),"")</f>
-        <v>-&gt;False</v>
+        <v/>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="str">
-        <v>-&gt;False</v>
+      <c r="H30" s="17">
+        <v>0</v>
       </c>
       <c r="I30" s="17">
         <v>0</v>
       </c>
       <c r="J30" s="17" t="str" cm="1">
         <f t="array" ref="J30">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(G30:I30,G30:I30&lt;&gt;0),,-1),"")</f>
-        <v>-&gt;False</v>
+        <v/>
       </c>
       <c r="K30" s="17"/>
-      <c r="L30" s="18" t="str">
-        <v>-&gt;False</v>
+      <c r="L30" s="18">
+        <v>0</v>
       </c>
       <c r="M30" s="18">
         <v>0</v>
@@ -2199,10 +2191,10 @@
       </c>
       <c r="O30" s="19" t="str" cm="1">
         <f t="array" ref="O30">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(L30:N30,L30:N30&lt;&gt;0),,-1),"")</f>
-        <v>-&gt;False</v>
-      </c>
-      <c r="P30" s="17" t="str">
-        <v>-&gt;False</v>
+        <v/>
+      </c>
+      <c r="P30" s="17">
+        <v>0</v>
       </c>
       <c r="Q30" s="20">
         <v>0</v>
@@ -2215,10 +2207,10 @@
       </c>
       <c r="T30" s="19" t="str" cm="1">
         <f t="array" ref="T30">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(O30:S30,O30:S30&lt;&gt;0),,-1),"")</f>
-        <v>-&gt;False</v>
-      </c>
-      <c r="V30" s="18" t="str">
-        <v>-&gt;False</v>
+        <v/>
+      </c>
+      <c r="V30" s="18">
+        <v>0</v>
       </c>
       <c r="W30" s="18">
         <v>0</v>
@@ -2228,10 +2220,10 @@
       </c>
       <c r="Y30" s="19" t="str" cm="1">
         <f t="array" ref="Y30">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(V30:X30,V30:X30&lt;&gt;0),,-1),"")</f>
-        <v>-&gt;False</v>
-      </c>
-      <c r="Z30" s="17" t="str">
-        <v>-&gt;False</v>
+        <v/>
+      </c>
+      <c r="Z30" s="17">
+        <v>0</v>
       </c>
       <c r="AA30" s="20">
         <v>0</v>
@@ -2348,8 +2340,8 @@
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="str">
-        <v>-&gt;True(except)</v>
+      <c r="B32" s="1">
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -2365,8 +2357,8 @@
         <v>-&gt;True(except)</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="1" t="str">
-        <v>-&gt;True(except)</v>
+      <c r="H32" s="1">
+        <v>0</v>
       </c>
       <c r="I32" s="1" t="str">
         <v>-&gt;True(except)</v>
@@ -2376,8 +2368,8 @@
         <v>-&gt;True(except)</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="13" t="str">
-        <v>-&gt;True(except)</v>
+      <c r="L32" s="13">
+        <v>0</v>
       </c>
       <c r="M32" s="13" t="str">
         <v>-&gt;True(except)</v>
@@ -2389,8 +2381,8 @@
         <f t="array" ref="O32">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(L32:N32,L32:N32&lt;&gt;0),,-1),"")</f>
         <v>-&gt;True(except)</v>
       </c>
-      <c r="P32" s="1" t="str">
-        <v>-&gt;True(except)</v>
+      <c r="P32" s="1">
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2405,8 +2397,8 @@
         <f t="array" ref="T32">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(O32:S32,O32:S32&lt;&gt;0),,-1),"")</f>
         <v>-&gt;True(except)</v>
       </c>
-      <c r="V32" s="13" t="str">
-        <v>-&gt;True(except)</v>
+      <c r="V32" s="13">
+        <v>0</v>
       </c>
       <c r="W32" s="13" t="str">
         <v>-&gt;True(except)</v>
@@ -2418,8 +2410,8 @@
         <f t="array" ref="Y32">IFERROR(_xlfn.TAKE(_xlfn._xlws.FILTER(V32:X32,V32:X32&lt;&gt;0),,-1),"")</f>
         <v>-&gt;True(except)</v>
       </c>
-      <c r="Z32" s="1" t="str">
-        <v>-&gt;True(except)</v>
+      <c r="Z32" s="1">
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>0</v>
